--- a/examples/sources/data/unsolved/to_schedule/2018-11-27.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2018-11-27.xlsx
@@ -6882,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="N138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O138" s="2">
         <v>43431</v>
@@ -7125,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="M144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N144">
         <v>1</v>
@@ -7169,7 +7169,7 @@
         <v>1</v>
       </c>
       <c r="N145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O145" s="2">
         <v>43431</v>
@@ -8122,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="M167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N167">
         <v>1</v>
@@ -8298,7 +8298,7 @@
         <v>1</v>
       </c>
       <c r="N171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O171" s="2">
         <v>43431</v>
@@ -9327,7 +9327,7 @@
         <v>1</v>
       </c>
       <c r="N195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O195" s="2">
         <v>43431</v>
@@ -9365,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="M196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N196">
         <v>1</v>
